--- a/loaded_influencer_data/kaylee.ugc_/kaylee.ugc__video.xlsx
+++ b/loaded_influencer_data/kaylee.ugc_/kaylee.ugc__video.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N50"/>
+  <dimension ref="A1:N51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -506,269 +506,269 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@kaylee.ugc_/video/7486439572289768709</t>
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@kaylee.ugc_/video/7489574585629773061</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>392</v>
+        <v>270</v>
       </c>
       <c r="C2" t="n">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="D2" t="n">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Love her😍 @aplbofficial_influencers #ugc #viral_video #fypシ゚ #ugccreator #ugccontentcreator</t>
+          <t>Javvy, a coffee concentrate🩷 Loveeee it @Javvy Coffee #javvy #ugc #viral_video #fypシ゚ #ugccreator</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>21.93877551020408</v>
+        <v>16.2962962962963</v>
       </c>
       <c r="I2" t="n">
-        <v>16.07142857142857</v>
+        <v>13.33333333333333</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>5.86734693877551</v>
+        <v>2.962962962962963</v>
       </c>
       <c r="L2" t="n">
-        <v>2.040816326530612</v>
+        <v>0.7407407407407408</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>2025-03-28</t>
+          <t>2025-04-05</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@kaylee.ugc_/video/7486250480574811398</t>
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@kaylee.ugc_/video/7489096881558310199</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="C3" t="n">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="D3" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Javvy coffee🩷A coffee concentrate, link in bio for $$$ off!🩷 @Javvy Coffee #javvy #javvycoffee #ugc</t>
+          <t>Tocobo PR unboxing🩷 Reviews coming soon! Stay tuned!🥹🩷 Thank you so much @tocobo_influencers</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>23.56902356902357</v>
+        <v>41.61073825503356</v>
       </c>
       <c r="I3" t="n">
-        <v>19.52861952861953</v>
+        <v>31.54362416107383</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>4.040404040404041</v>
+        <v>10.06711409395973</v>
       </c>
       <c r="L3" t="n">
-        <v>0.3367003367003367</v>
+        <v>2.013422818791946</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>2025-03-27</t>
+          <t>2025-04-04</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@kaylee.ugc_/video/7485855917821512965</t>
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@kaylee.ugc_/video/7488838564604693766</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>469</v>
+        <v>350</v>
       </c>
       <c r="C4" t="n">
-        <v>51</v>
+        <v>61</v>
       </c>
       <c r="D4" t="n">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
+        <v>6</v>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>This was so fun to do! Thank you so much @makegoodfood.ca #goodfoodca #ugc #viral_video #fypシ゚ #ugccreator</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>20.57142857142857</v>
+      </c>
+      <c r="I4" t="n">
+        <v>17.42857142857143</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>3.142857142857143</v>
+      </c>
+      <c r="L4" t="n">
+        <v>1.714285714285714</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0</v>
+      </c>
+      <c r="N4" t="inlineStr">
+        <is>
+          <t>2025-04-03</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@kaylee.ugc_/video/7488492341523680517</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>316</v>
+      </c>
+      <c r="C5" t="n">
+        <v>67</v>
+      </c>
+      <c r="D5" t="n">
+        <v>13</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
         <v>3</v>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>COSRX Snail mask🩷😍 10/10😍😍I loveeee collagen masks, and love how it turns transparent! Thank you so much</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>14.0724946695096</v>
-      </c>
-      <c r="I4" t="n">
-        <v>10.87420042643923</v>
-      </c>
-      <c r="J4" t="n">
-        <v>0</v>
-      </c>
-      <c r="K4" t="n">
-        <v>3.198294243070363</v>
-      </c>
-      <c r="L4" t="n">
-        <v>0.6396588486140725</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0</v>
-      </c>
-      <c r="N4" t="inlineStr">
-        <is>
-          <t>2025-03-26</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@kaylee.ugc_/video/7485485049236786437</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>711</v>
-      </c>
-      <c r="C5" t="n">
-        <v>66</v>
-      </c>
-      <c r="D5" t="n">
-        <v>22</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>6</v>
-      </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Advanced snail 92 mucin all in one cream😍💛 I'm absolutely in love with this cream! 10/10😍 Feels so hydrating! Thank you so much</t>
+          <t>Goodfood PR unboxing🩷😍 Thank you so much @makegoodfood.ca I can't wait to try these!! Reviews coming soon!🩷😊</t>
         </is>
       </c>
       <c r="H5" t="n">
-        <v>12.37693389592124</v>
+        <v>25.31645569620253</v>
       </c>
       <c r="I5" t="n">
-        <v>9.282700421940929</v>
+        <v>21.20253164556962</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
       </c>
       <c r="K5" t="n">
-        <v>3.09423347398031</v>
+        <v>4.113924050632911</v>
       </c>
       <c r="L5" t="n">
-        <v>0.8438818565400843</v>
+        <v>0.949367088607595</v>
       </c>
       <c r="M5" t="n">
         <v>0</v>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>2025-03-25</t>
+          <t>2025-04-02</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@kaylee.ugc_/video/7485038807281339703</t>
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@kaylee.ugc_/video/7487977648791080198</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>596</v>
+        <v>481</v>
       </c>
       <c r="C6" t="n">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="D6" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E6" t="n">
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Advanced snail 92 mucin all in one cream😍💛 I'm absolutely in love with this cream! 10/10😍 Feels so hydrating! Thank you so much</t>
+          <t>I like it because it feels very healthy and nourishing but I think I got a bad batch or something, because my pads barely had any product absorbed in it.😫</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>15.60402684563758</v>
+        <v>22.45322245322246</v>
       </c>
       <c r="I6" t="n">
-        <v>12.75167785234899</v>
+        <v>18.2952182952183</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>2.852348993288591</v>
+        <v>4.158004158004158</v>
       </c>
       <c r="L6" t="n">
-        <v>1.006711409395973</v>
+        <v>1.871101871101871</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>2025-03-24</t>
+          <t>2025-04-01</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@kaylee.ugc_/video/7484609991295520055</t>
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@kaylee.ugc_/video/7487608231917800759</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>529</v>
+        <v>419</v>
       </c>
       <c r="C7" t="n">
-        <v>111</v>
+        <v>88</v>
       </c>
       <c r="D7" t="n">
-        <v>45</v>
+        <v>20</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
@@ -778,247 +778,249 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Thank you so much COSRX!! Reviews coming soon!💛 @COSRX Influencers Official @COSRX Official</t>
+          <t>I like it because it feels very healthy and nourishing but I think I got a bad batch or something, because my pads barely had any product absorbed in it.😫</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>29.48960302457467</v>
+        <v>25.77565632458234</v>
       </c>
       <c r="I7" t="n">
-        <v>20.98298676748582</v>
+        <v>21.00238663484487</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>8.506616257088846</v>
+        <v>4.77326968973747</v>
       </c>
       <c r="L7" t="n">
-        <v>1.701323251417769</v>
+        <v>2.147971360381861</v>
       </c>
       <c r="M7" t="n">
         <v>0</v>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-04-01</t>
         </is>
       </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@kaylee.ugc_/video/7484359192275455238</t>
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@kaylee.ugc_/video/7487342408666041605</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>372</v>
+        <v>451</v>
       </c>
       <c r="C8" t="n">
-        <v>64</v>
+        <v>86</v>
       </c>
       <c r="D8" t="n">
+        <v>25</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>10</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Obsessed with winners now😍
+@winners
+#ugc #viral_video #fypシ゚ #ugccreator #ugccontentcreator</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>24.6119733924612</v>
+      </c>
+      <c r="I8" t="n">
+        <v>19.06873614190687</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>5.543237250554324</v>
+      </c>
+      <c r="L8" t="n">
+        <v>2.217294900221729</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="inlineStr">
+        <is>
+          <t>2025-03-31</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@kaylee.ugc_/video/7486439572289768709</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>520</v>
+      </c>
+      <c r="C9" t="n">
+        <v>89</v>
+      </c>
+      <c r="D9" t="n">
+        <v>30</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>10</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Am I the only one that doesn't like this mask? Again, this is my opinion and experience, you might love it, who knows🤷🏼‍♀️😭</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>22.88461538461538</v>
+      </c>
+      <c r="I9" t="n">
+        <v>17.11538461538462</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>5.769230769230769</v>
+      </c>
+      <c r="L9" t="n">
+        <v>1.923076923076923</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="inlineStr">
+        <is>
+          <t>2025-03-30</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@kaylee.ugc_/video/7486250480574811398</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>353</v>
+      </c>
+      <c r="C10" t="n">
+        <v>93</v>
+      </c>
+      <c r="D10" t="n">
+        <v>32</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
         <v>9</v>
       </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Love her😍 @aplbofficial_influencers #ugc #viral_video #fypシ゚ #ugccreator #ugccontentcreator</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>35.41076487252124</v>
+      </c>
+      <c r="I10" t="n">
+        <v>26.34560906515581</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>9.065155807365439</v>
+      </c>
+      <c r="L10" t="n">
+        <v>2.549575070821529</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="inlineStr">
+        <is>
+          <t>2025-03-27</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@kaylee.ugc_/video/7485855917821512965</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>469</v>
+      </c>
+      <c r="C11" t="n">
+        <v>51</v>
+      </c>
+      <c r="D11" t="n">
+        <v>15</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
         <v>3</v>
       </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>APLB niacinamide sheet mask🩵 Loved this mask, left my skin feeling so healthy and hydrated🩵 Thank you so much</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>19.62365591397849</v>
-      </c>
-      <c r="I8" t="n">
-        <v>17.20430107526882</v>
-      </c>
-      <c r="J8" t="n">
-        <v>0</v>
-      </c>
-      <c r="K8" t="n">
-        <v>2.419354838709677</v>
-      </c>
-      <c r="L8" t="n">
-        <v>0.8064516129032258</v>
-      </c>
-      <c r="M8" t="n">
-        <v>0</v>
-      </c>
-      <c r="N8" t="inlineStr">
-        <is>
-          <t>2025-03-22</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@kaylee.ugc_/video/7484019886402981175</t>
-        </is>
-      </c>
-      <c r="B9" t="n">
-        <v>213</v>
-      </c>
-      <c r="C9" t="n">
-        <v>67</v>
-      </c>
-      <c r="D9" t="n">
-        <v>14</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>2</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>APLB niacinamide sheet mask🩵 Loved this mask, left my skin feeling so healthy and hydrated🩵 Thank you so much</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>38.0281690140845</v>
-      </c>
-      <c r="I9" t="n">
-        <v>31.45539906103286</v>
-      </c>
-      <c r="J9" t="n">
-        <v>0</v>
-      </c>
-      <c r="K9" t="n">
-        <v>6.572769953051644</v>
-      </c>
-      <c r="L9" t="n">
-        <v>0.9389671361502347</v>
-      </c>
-      <c r="M9" t="n">
-        <v>0</v>
-      </c>
-      <c r="N9" t="inlineStr">
-        <is>
-          <t>2025-03-21</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@kaylee.ugc_/video/7483633224053165317</t>
-        </is>
-      </c>
-      <c r="B10" t="n">
-        <v>356</v>
-      </c>
-      <c r="C10" t="n">
-        <v>60</v>
-      </c>
-      <c r="D10" t="n">
-        <v>10</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>2</v>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Love this cream so much😍 So light yet moisturizing and soothing! Perfect for sensitive skin🩷 @AXIS-Y</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>19.66292134831461</v>
-      </c>
-      <c r="I10" t="n">
-        <v>16.85393258426966</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
-        <v>2.808988764044944</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0.5617977528089888</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="inlineStr">
-        <is>
-          <t>2025-03-20</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@kaylee.ugc_/video/7483287278777912582</t>
-        </is>
-      </c>
-      <c r="B11" t="n">
-        <v>422</v>
-      </c>
-      <c r="C11" t="n">
-        <v>77</v>
-      </c>
-      <c r="D11" t="n">
-        <v>20</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>1</v>
-      </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Love this cream so much😍 So light yet moisturizing and soothing! Perfect for sensitive skin🩷 @AXIS-Y</t>
+          <t>COSRX Snail mask🩷😍 10/10😍😍I loveeee collagen masks, and love how it turns transparent! Thank you so much</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>22.98578199052132</v>
+        <v>14.0724946695096</v>
       </c>
       <c r="I11" t="n">
-        <v>18.24644549763033</v>
+        <v>10.87420042643923</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
       </c>
       <c r="K11" t="n">
-        <v>4.739336492890995</v>
+        <v>3.198294243070363</v>
       </c>
       <c r="L11" t="n">
-        <v>0.2369668246445498</v>
+        <v>0.6396588486140725</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>2025-03-19</t>
+          <t>2025-03-26</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@kaylee.ugc_/video/7482807593761590534</t>
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@kaylee.ugc_/video/7485485049236786437</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>484</v>
+        <v>711</v>
       </c>
       <c r="C12" t="n">
-        <v>102</v>
+        <v>66</v>
       </c>
       <c r="D12" t="n">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="E12" t="n">
         <v>0</v>
@@ -1028,107 +1030,457 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
+          <t>Advanced snail 92 mucin all in one cream😍💛 I'm absolutely in love with this cream! 10/10😍 Feels so hydrating! Thank you so much</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>12.37693389592124</v>
+      </c>
+      <c r="I12" t="n">
+        <v>9.282700421940929</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>3.09423347398031</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0.8438818565400843</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="inlineStr">
+        <is>
+          <t>2025-03-25</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@kaylee.ugc_/video/7485038807281339703</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>596</v>
+      </c>
+      <c r="C13" t="n">
+        <v>76</v>
+      </c>
+      <c r="D13" t="n">
+        <v>17</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>6</v>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>Advanced snail 92 mucin all in one cream😍💛 I'm absolutely in love with this cream! 10/10😍 Feels so hydrating! Thank you so much</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>15.60402684563758</v>
+      </c>
+      <c r="I13" t="n">
+        <v>12.75167785234899</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>2.852348993288591</v>
+      </c>
+      <c r="L13" t="n">
+        <v>1.006711409395973</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="inlineStr">
+        <is>
+          <t>2025-03-24</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@kaylee.ugc_/video/7484609991295520055</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>529</v>
+      </c>
+      <c r="C14" t="n">
+        <v>111</v>
+      </c>
+      <c r="D14" t="n">
+        <v>45</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>9</v>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Thank you so much COSRX!! Reviews coming soon!💛 @COSRX Influencers Official @COSRX Official</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>29.48960302457467</v>
+      </c>
+      <c r="I14" t="n">
+        <v>20.98298676748582</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>8.506616257088846</v>
+      </c>
+      <c r="L14" t="n">
+        <v>1.701323251417769</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="inlineStr">
+        <is>
+          <t>2025-03-23</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@kaylee.ugc_/video/7484359192275455238</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>372</v>
+      </c>
+      <c r="C15" t="n">
+        <v>64</v>
+      </c>
+      <c r="D15" t="n">
+        <v>9</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>3</v>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>APLB niacinamide sheet mask🩵 Loved this mask, left my skin feeling so healthy and hydrated🩵 Thank you so much</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>19.62365591397849</v>
+      </c>
+      <c r="I15" t="n">
+        <v>17.20430107526882</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>2.419354838709677</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0.8064516129032258</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="inlineStr">
+        <is>
+          <t>2025-03-22</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@kaylee.ugc_/video/7484019886402981175</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>213</v>
+      </c>
+      <c r="C16" t="n">
+        <v>67</v>
+      </c>
+      <c r="D16" t="n">
+        <v>14</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>2</v>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>APLB niacinamide sheet mask🩵 Loved this mask, left my skin feeling so healthy and hydrated🩵 Thank you so much</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>38.0281690140845</v>
+      </c>
+      <c r="I16" t="n">
+        <v>31.45539906103286</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>6.572769953051644</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0.9389671361502347</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="inlineStr">
+        <is>
+          <t>2025-03-21</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@kaylee.ugc_/video/7483633224053165317</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>356</v>
+      </c>
+      <c r="C17" t="n">
+        <v>60</v>
+      </c>
+      <c r="D17" t="n">
+        <v>10</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>2</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Love this cream so much😍 So light yet moisturizing and soothing! Perfect for sensitive skin🩷 @AXIS-Y</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>19.66292134831461</v>
+      </c>
+      <c r="I17" t="n">
+        <v>16.85393258426966</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>2.808988764044944</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0.5617977528089888</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>2025-03-20</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@kaylee.ugc_/video/7483287278777912582</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>422</v>
+      </c>
+      <c r="C18" t="n">
+        <v>77</v>
+      </c>
+      <c r="D18" t="n">
+        <v>20</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0</v>
+      </c>
+      <c r="F18" t="n">
+        <v>1</v>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Love this cream so much😍 So light yet moisturizing and soothing! Perfect for sensitive skin🩷 @AXIS-Y</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>22.98578199052132</v>
+      </c>
+      <c r="I18" t="n">
+        <v>18.24644549763033</v>
+      </c>
+      <c r="J18" t="n">
+        <v>0</v>
+      </c>
+      <c r="K18" t="n">
+        <v>4.739336492890995</v>
+      </c>
+      <c r="L18" t="n">
+        <v>0.2369668246445498</v>
+      </c>
+      <c r="M18" t="n">
+        <v>0</v>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>2025-03-19</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>https://www.tiktok.com/@kaylee.ugc_/video/7482807593761590534</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>484</v>
+      </c>
+      <c r="C19" t="n">
+        <v>102</v>
+      </c>
+      <c r="D19" t="n">
+        <v>47</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0</v>
+      </c>
+      <c r="F19" t="n">
+        <v>6</v>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
           <t>APLB PR unboxing🩵Will share my reviews soon🩵🩵 Stay tuned!
 #moots #ugc #viral_video #fyp #fypシ゚</t>
         </is>
       </c>
-      <c r="H12" t="n">
+      <c r="H19" t="n">
         <v>30.78512396694214</v>
       </c>
-      <c r="I12" t="n">
+      <c r="I19" t="n">
         <v>21.07438016528926</v>
       </c>
-      <c r="J12" t="n">
-        <v>0</v>
-      </c>
-      <c r="K12" t="n">
+      <c r="J19" t="n">
+        <v>0</v>
+      </c>
+      <c r="K19" t="n">
         <v>9.710743801652892</v>
       </c>
-      <c r="L12" t="n">
+      <c r="L19" t="n">
         <v>1.239669421487603</v>
       </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="inlineStr">
+      <c r="M19" t="n">
+        <v>0</v>
+      </c>
+      <c r="N19" t="inlineStr">
         <is>
           <t>2025-03-18</t>
         </is>
       </c>
     </row>
-    <row r="13">
-      <c r="A13" t="inlineStr">
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@kaylee.ugc_/video/7482177244383825207</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B20" t="n">
         <v>412</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C20" t="n">
         <v>102</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D20" t="n">
         <v>47</v>
       </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
+      <c r="E20" t="n">
+        <v>0</v>
+      </c>
+      <c r="F20" t="n">
         <v>6</v>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="G20" t="inlineStr">
         <is>
           <t>APLB PR unboxing🩵Will share my reviews soon🩵🩵 Stay tuned!
 #moots #ugc #viral_video #fyp #fypシ゚</t>
         </is>
       </c>
-      <c r="H13" t="n">
+      <c r="H20" t="n">
         <v>36.16504854368932</v>
       </c>
-      <c r="I13" t="n">
+      <c r="I20" t="n">
         <v>24.75728155339806</v>
       </c>
-      <c r="J13" t="n">
-        <v>0</v>
-      </c>
-      <c r="K13" t="n">
+      <c r="J20" t="n">
+        <v>0</v>
+      </c>
+      <c r="K20" t="n">
         <v>11.40776699029126</v>
       </c>
-      <c r="L13" t="n">
+      <c r="L20" t="n">
         <v>1.456310679611651</v>
       </c>
-      <c r="M13" t="n">
-        <v>0</v>
-      </c>
-      <c r="N13" t="inlineStr">
+      <c r="M20" t="n">
+        <v>0</v>
+      </c>
+      <c r="N20" t="inlineStr">
         <is>
           <t>2025-03-18</t>
         </is>
       </c>
     </row>
-    <row r="14">
-      <c r="A14" t="inlineStr">
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@kaylee.ugc_/video/7481759214755417399</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B21" t="n">
         <v>663</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C21" t="n">
         <v>130</v>
       </c>
-      <c r="D14" t="n">
+      <c r="D21" t="n">
         <v>39</v>
       </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
         <v>5</v>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="G21" t="inlineStr">
         <is>
           <t>Bubble is so cute😍🩵
 @Bubble Skincare @Bubble Insiders
@@ -1136,1851 +1488,1547 @@
 #moots #ugc #viral_video #fyp</t>
         </is>
       </c>
-      <c r="H14" t="n">
+      <c r="H21" t="n">
         <v>25.49019607843137</v>
       </c>
-      <c r="I14" t="n">
+      <c r="I21" t="n">
         <v>19.6078431372549</v>
       </c>
-      <c r="J14" t="n">
-        <v>0</v>
-      </c>
-      <c r="K14" t="n">
+      <c r="J21" t="n">
+        <v>0</v>
+      </c>
+      <c r="K21" t="n">
         <v>5.88235294117647</v>
       </c>
-      <c r="L14" t="n">
+      <c r="L21" t="n">
         <v>0.7541478129713424</v>
       </c>
-      <c r="M14" t="n">
-        <v>0</v>
-      </c>
-      <c r="N14" t="inlineStr">
+      <c r="M21" t="n">
+        <v>0</v>
+      </c>
+      <c r="N21" t="inlineStr">
         <is>
           <t>2025-03-15</t>
         </is>
       </c>
     </row>
-    <row r="15">
-      <c r="A15" t="inlineStr">
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@kaylee.ugc_/photo/7481427086716996919</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B22" t="n">
         <v>400</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C22" t="n">
         <v>64</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D22" t="n">
         <v>5</v>
       </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
         <v>3</v>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="G22" t="inlineStr">
         <is>
           <t>Yesstyle savings codes!🩷🩷
 @YesStyle @YesStyleInfluencers
 #moots #ugc #viral_video #fyp #fypシ゚ #ugccreator</t>
         </is>
       </c>
-      <c r="H15" t="n">
+      <c r="H22" t="n">
         <v>17.25</v>
       </c>
-      <c r="I15" t="n">
+      <c r="I22" t="n">
         <v>16</v>
       </c>
-      <c r="J15" t="n">
-        <v>0</v>
-      </c>
-      <c r="K15" t="n">
+      <c r="J22" t="n">
+        <v>0</v>
+      </c>
+      <c r="K22" t="n">
         <v>1.25</v>
       </c>
-      <c r="L15" t="n">
+      <c r="L22" t="n">
         <v>0.75</v>
       </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="inlineStr">
+      <c r="M22" t="n">
+        <v>0</v>
+      </c>
+      <c r="N22" t="inlineStr">
         <is>
           <t>2025-03-14</t>
         </is>
       </c>
     </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
+    <row r="23">
+      <c r="A23" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@kaylee.ugc_/video/7481037713794141446</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B23" t="n">
         <v>558</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C23" t="n">
         <v>88</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D23" t="n">
         <v>21</v>
       </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
+      <c r="E23" t="n">
+        <v>0</v>
+      </c>
+      <c r="F23" t="n">
         <v>7</v>
       </c>
-      <c r="G16" t="inlineStr">
+      <c r="G23" t="inlineStr">
         <is>
           <t>All those products and my face would still breakout 24/7😭
 #moots #ugc #viral_video #fyp #fypシ゚ #ugccreator</t>
         </is>
       </c>
-      <c r="H16" t="n">
+      <c r="H23" t="n">
         <v>19.53405017921147</v>
       </c>
-      <c r="I16" t="n">
+      <c r="I23" t="n">
         <v>15.77060931899642</v>
       </c>
-      <c r="J16" t="n">
-        <v>0</v>
-      </c>
-      <c r="K16" t="n">
+      <c r="J23" t="n">
+        <v>0</v>
+      </c>
+      <c r="K23" t="n">
         <v>3.763440860215054</v>
       </c>
-      <c r="L16" t="n">
+      <c r="L23" t="n">
         <v>1.254480286738351</v>
       </c>
-      <c r="M16" t="n">
-        <v>0</v>
-      </c>
-      <c r="N16" t="inlineStr">
+      <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="inlineStr">
         <is>
           <t>2025-03-13</t>
         </is>
       </c>
     </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
+    <row r="24">
+      <c r="A24" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@kaylee.ugc_/video/7480349119190404358</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B24" t="n">
         <v>419</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C24" t="n">
         <v>100</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D24" t="n">
         <v>36</v>
       </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
+      <c r="E24" t="n">
+        <v>0</v>
+      </c>
+      <c r="F24" t="n">
         <v>8</v>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="G24" t="inlineStr">
         <is>
           <t>Celimax serum😍🤭 Reminds me so much of straight aloevera🥹 I love itttt @celimax.global @celimax.us #yesstyle</t>
         </is>
       </c>
-      <c r="H17" t="n">
+      <c r="H24" t="n">
         <v>32.4582338902148</v>
       </c>
-      <c r="I17" t="n">
+      <c r="I24" t="n">
         <v>23.86634844868735</v>
       </c>
-      <c r="J17" t="n">
-        <v>0</v>
-      </c>
-      <c r="K17" t="n">
+      <c r="J24" t="n">
+        <v>0</v>
+      </c>
+      <c r="K24" t="n">
         <v>8.591885441527445</v>
       </c>
-      <c r="L17" t="n">
+      <c r="L24" t="n">
         <v>1.909307875894988</v>
       </c>
-      <c r="M17" t="n">
-        <v>0</v>
-      </c>
-      <c r="N17" t="inlineStr">
+      <c r="M24" t="n">
+        <v>0</v>
+      </c>
+      <c r="N24" t="inlineStr">
         <is>
           <t>2025-03-11</t>
         </is>
       </c>
     </row>
-    <row r="18">
-      <c r="A18" t="inlineStr">
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@kaylee.ugc_/video/7479796597623229701</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="B25" t="n">
         <v>542</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C25" t="n">
         <v>89</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D25" t="n">
         <v>19</v>
       </c>
-      <c r="E18" t="n">
-        <v>0</v>
-      </c>
-      <c r="F18" t="n">
+      <c r="E25" t="n">
+        <v>0</v>
+      </c>
+      <c r="F25" t="n">
         <v>4</v>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="G25" t="inlineStr">
         <is>
           <t>Bubble eye cream😍 Probably my fav product from bubble now @Bubble Skincare #bubbleambassador</t>
         </is>
       </c>
-      <c r="H18" t="n">
+      <c r="H25" t="n">
         <v>19.92619926199262</v>
       </c>
-      <c r="I18" t="n">
+      <c r="I25" t="n">
         <v>16.42066420664207</v>
       </c>
-      <c r="J18" t="n">
-        <v>0</v>
-      </c>
-      <c r="K18" t="n">
+      <c r="J25" t="n">
+        <v>0</v>
+      </c>
+      <c r="K25" t="n">
         <v>3.505535055350553</v>
       </c>
-      <c r="L18" t="n">
+      <c r="L25" t="n">
         <v>0.7380073800738007</v>
       </c>
-      <c r="M18" t="n">
-        <v>0</v>
-      </c>
-      <c r="N18" t="inlineStr">
+      <c r="M25" t="n">
+        <v>0</v>
+      </c>
+      <c r="N25" t="inlineStr">
         <is>
           <t>2025-03-09</t>
         </is>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" t="inlineStr">
+    <row r="26">
+      <c r="A26" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@kaylee.ugc_/video/7479546571839884599</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="B26" t="n">
         <v>394</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C26" t="n">
         <v>71</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="E19" t="n">
-        <v>0</v>
-      </c>
-      <c r="F19" t="n">
+      <c r="E26" t="n">
+        <v>0</v>
+      </c>
+      <c r="F26" t="n">
         <v>6</v>
       </c>
-      <c r="G19" t="inlineStr">
+      <c r="G26" t="inlineStr">
         <is>
           <t>Closer, pore reducing serum🩷 Love the colour😍💜 @FRANKLY_GLOBAL @FRANKLY
 #franklyskincare</t>
         </is>
       </c>
-      <c r="H19" t="n">
+      <c r="H26" t="n">
         <v>24.36548223350254</v>
       </c>
-      <c r="I19" t="n">
+      <c r="I26" t="n">
         <v>18.02030456852792</v>
       </c>
-      <c r="J19" t="n">
-        <v>0</v>
-      </c>
-      <c r="K19" t="n">
+      <c r="J26" t="n">
+        <v>0</v>
+      </c>
+      <c r="K26" t="n">
         <v>6.345177664974619</v>
       </c>
-      <c r="L19" t="n">
+      <c r="L26" t="n">
         <v>1.522842639593909</v>
       </c>
-      <c r="M19" t="n">
-        <v>0</v>
-      </c>
-      <c r="N19" t="inlineStr">
+      <c r="M26" t="n">
+        <v>0</v>
+      </c>
+      <c r="N26" t="inlineStr">
         <is>
           <t>2025-03-09</t>
         </is>
       </c>
     </row>
-    <row r="20">
-      <c r="A20" t="inlineStr">
+    <row r="27">
+      <c r="A27" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@kaylee.ugc_/video/7479190931376262405</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="B27" t="n">
         <v>242</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C27" t="n">
         <v>75</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D27" t="n">
         <v>17</v>
       </c>
-      <c r="E20" t="n">
-        <v>0</v>
-      </c>
-      <c r="F20" t="n">
+      <c r="E27" t="n">
+        <v>0</v>
+      </c>
+      <c r="F27" t="n">
         <v>3</v>
       </c>
-      <c r="G20" t="inlineStr">
+      <c r="G27" t="inlineStr">
         <is>
           <t>Frankly's pore-minimizing and hydrating serum💜 @FRANKLY_GLOBAL @FRANKLY #franklyskincare</t>
         </is>
       </c>
-      <c r="H20" t="n">
+      <c r="H27" t="n">
         <v>38.01652892561984</v>
       </c>
-      <c r="I20" t="n">
+      <c r="I27" t="n">
         <v>30.99173553719008</v>
       </c>
-      <c r="J20" t="n">
-        <v>0</v>
-      </c>
-      <c r="K20" t="n">
+      <c r="J27" t="n">
+        <v>0</v>
+      </c>
+      <c r="K27" t="n">
         <v>7.024793388429752</v>
       </c>
-      <c r="L20" t="n">
+      <c r="L27" t="n">
         <v>1.239669421487603</v>
       </c>
-      <c r="M20" t="n">
-        <v>0</v>
-      </c>
-      <c r="N20" t="inlineStr">
+      <c r="M27" t="n">
+        <v>0</v>
+      </c>
+      <c r="N27" t="inlineStr">
         <is>
           <t>2025-03-08</t>
         </is>
       </c>
     </row>
-    <row r="21">
-      <c r="A21" t="inlineStr">
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@kaylee.ugc_/video/7478662886932663557</t>
         </is>
       </c>
-      <c r="B21" t="n">
+      <c r="B28" t="n">
         <v>397</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C28" t="n">
         <v>52</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D28" t="n">
         <v>11</v>
       </c>
-      <c r="E21" t="n">
-        <v>0</v>
-      </c>
-      <c r="F21" t="n">
+      <c r="E28" t="n">
+        <v>0</v>
+      </c>
+      <c r="F28" t="n">
         <v>2</v>
       </c>
-      <c r="G21" t="inlineStr">
+      <c r="G28" t="inlineStr">
         <is>
           <t>Been taking these for about a month now. Sugar-free cinnamon gummies🩷
 I've noticed less joint pain, more energy🤭😍</t>
         </is>
       </c>
-      <c r="H21" t="n">
+      <c r="H28" t="n">
         <v>15.86901763224181</v>
       </c>
-      <c r="I21" t="n">
+      <c r="I28" t="n">
         <v>13.09823677581864</v>
       </c>
-      <c r="J21" t="n">
-        <v>0</v>
-      </c>
-      <c r="K21" t="n">
+      <c r="J28" t="n">
+        <v>0</v>
+      </c>
+      <c r="K28" t="n">
         <v>2.770780856423174</v>
       </c>
-      <c r="L21" t="n">
+      <c r="L28" t="n">
         <v>0.5037783375314862</v>
       </c>
-      <c r="M21" t="n">
-        <v>0</v>
-      </c>
-      <c r="N21" t="inlineStr">
+      <c r="M28" t="n">
+        <v>0</v>
+      </c>
+      <c r="N28" t="inlineStr">
         <is>
           <t>2025-03-06</t>
         </is>
       </c>
     </row>
-    <row r="22">
-      <c r="A22" t="inlineStr">
+    <row r="29">
+      <c r="A29" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@kaylee.ugc_/video/7478468708772351237</t>
         </is>
       </c>
-      <c r="B22" t="n">
+      <c r="B29" t="n">
         <v>401</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C29" t="n">
         <v>74</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D29" t="n">
         <v>20</v>
       </c>
-      <c r="E22" t="n">
-        <v>0</v>
-      </c>
-      <c r="F22" t="n">
+      <c r="E29" t="n">
+        <v>0</v>
+      </c>
+      <c r="F29" t="n">
         <v>5</v>
       </c>
-      <c r="G22" t="inlineStr">
+      <c r="G29" t="inlineStr">
         <is>
           <t>10/10😍🩷 I love the texture, feels so calming and doesnt irritate my sensitive skin! Thank you</t>
         </is>
       </c>
-      <c r="H22" t="n">
+      <c r="H29" t="n">
         <v>23.44139650872818</v>
       </c>
-      <c r="I22" t="n">
+      <c r="I29" t="n">
         <v>18.45386533665835</v>
       </c>
-      <c r="J22" t="n">
-        <v>0</v>
-      </c>
-      <c r="K22" t="n">
+      <c r="J29" t="n">
+        <v>0</v>
+      </c>
+      <c r="K29" t="n">
         <v>4.987531172069826</v>
       </c>
-      <c r="L22" t="n">
+      <c r="L29" t="n">
         <v>1.246882793017456</v>
       </c>
-      <c r="M22" t="n">
-        <v>0</v>
-      </c>
-      <c r="N22" t="inlineStr">
+      <c r="M29" t="n">
+        <v>0</v>
+      </c>
+      <c r="N29" t="inlineStr">
         <is>
           <t>2025-03-06</t>
         </is>
       </c>
     </row>
-    <row r="23">
-      <c r="A23" t="inlineStr">
+    <row r="30">
+      <c r="A30" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@kaylee.ugc_/video/7478107385832295686</t>
         </is>
       </c>
-      <c r="B23" t="n">
+      <c r="B30" t="n">
         <v>482</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C30" t="n">
         <v>78</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="E23" t="n">
-        <v>0</v>
-      </c>
-      <c r="F23" t="n">
+      <c r="E30" t="n">
+        <v>0</v>
+      </c>
+      <c r="F30" t="n">
         <v>9</v>
       </c>
-      <c r="G23" t="inlineStr">
+      <c r="G30" t="inlineStr">
         <is>
           <t>Heartleaf Hyaluron soothing ampoule serum😍😩 I'm actually so inlove with this serum, its so thick and has improved my skin so much🩷</t>
         </is>
       </c>
-      <c r="H23" t="n">
+      <c r="H30" t="n">
         <v>22.19917012448133</v>
       </c>
-      <c r="I23" t="n">
+      <c r="I30" t="n">
         <v>16.18257261410788</v>
       </c>
-      <c r="J23" t="n">
-        <v>0</v>
-      </c>
-      <c r="K23" t="n">
+      <c r="J30" t="n">
+        <v>0</v>
+      </c>
+      <c r="K30" t="n">
         <v>6.016597510373444</v>
       </c>
-      <c r="L23" t="n">
+      <c r="L30" t="n">
         <v>1.867219917012448</v>
       </c>
-      <c r="M23" t="n">
-        <v>0</v>
-      </c>
-      <c r="N23" t="inlineStr">
+      <c r="M30" t="n">
+        <v>0</v>
+      </c>
+      <c r="N30" t="inlineStr">
         <is>
           <t>2025-03-05</t>
         </is>
       </c>
     </row>
-    <row r="24">
-      <c r="A24" t="inlineStr">
+    <row r="31">
+      <c r="A31" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@kaylee.ugc_/video/7477600352120982789</t>
         </is>
       </c>
-      <c r="B24" t="n">
+      <c r="B31" t="n">
         <v>624</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C31" t="n">
         <v>94</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D31" t="n">
         <v>24</v>
       </c>
-      <c r="E24" t="n">
-        <v>0</v>
-      </c>
-      <c r="F24" t="n">
+      <c r="E31" t="n">
+        <v>0</v>
+      </c>
+      <c r="F31" t="n">
         <v>6</v>
       </c>
-      <c r="G24" t="inlineStr">
+      <c r="G31" t="inlineStr">
         <is>
           <t>THIS IS THE BEST SERUM EVER😍😩 I'm so obsessed😩😩 I highlyyyy recommend this one! I'm already out of it and need more!</t>
         </is>
       </c>
-      <c r="H24" t="n">
+      <c r="H31" t="n">
         <v>18.91025641025641</v>
       </c>
-      <c r="I24" t="n">
+      <c r="I31" t="n">
         <v>15.06410256410256</v>
       </c>
-      <c r="J24" t="n">
-        <v>0</v>
-      </c>
-      <c r="K24" t="n">
+      <c r="J31" t="n">
+        <v>0</v>
+      </c>
+      <c r="K31" t="n">
         <v>3.846153846153846</v>
       </c>
-      <c r="L24" t="n">
+      <c r="L31" t="n">
         <v>0.9615384615384616</v>
       </c>
-      <c r="M24" t="n">
-        <v>0</v>
-      </c>
-      <c r="N24" t="inlineStr">
+      <c r="M31" t="n">
+        <v>0</v>
+      </c>
+      <c r="N31" t="inlineStr">
         <is>
           <t>2025-03-04</t>
         </is>
       </c>
     </row>
-    <row r="25">
-      <c r="A25" t="inlineStr">
+    <row r="32">
+      <c r="A32" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@kaylee.ugc_/video/7477203876081388855</t>
         </is>
       </c>
-      <c r="B25" t="n">
+      <c r="B32" t="n">
         <v>524</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C32" t="n">
         <v>74</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D32" t="n">
         <v>23</v>
       </c>
-      <c r="E25" t="n">
-        <v>0</v>
-      </c>
-      <c r="F25" t="n">
+      <c r="E32" t="n">
+        <v>0</v>
+      </c>
+      <c r="F32" t="n">
         <v>4</v>
       </c>
-      <c r="G25" t="inlineStr">
+      <c r="G32" t="inlineStr">
         <is>
           <t>The only bad thing about this one is that it does peel a bit😭#moots #moots? #teamwork #skincare #ugc</t>
         </is>
       </c>
-      <c r="H25" t="n">
+      <c r="H32" t="n">
         <v>18.51145038167939</v>
       </c>
-      <c r="I25" t="n">
+      <c r="I32" t="n">
         <v>14.12213740458015</v>
       </c>
-      <c r="J25" t="n">
-        <v>0</v>
-      </c>
-      <c r="K25" t="n">
+      <c r="J32" t="n">
+        <v>0</v>
+      </c>
+      <c r="K32" t="n">
         <v>4.389312977099237</v>
       </c>
-      <c r="L25" t="n">
+      <c r="L32" t="n">
         <v>0.7633587786259541</v>
       </c>
-      <c r="M25" t="n">
-        <v>0</v>
-      </c>
-      <c r="N25" t="inlineStr">
+      <c r="M32" t="n">
+        <v>0</v>
+      </c>
+      <c r="N32" t="inlineStr">
         <is>
           <t>2025-03-02</t>
         </is>
       </c>
     </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
+    <row r="33">
+      <c r="A33" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@kaylee.ugc_/video/7476908776776551735</t>
         </is>
       </c>
-      <c r="B26" t="n">
+      <c r="B33" t="n">
         <v>452</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C33" t="n">
         <v>71</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D33" t="n">
         <v>22</v>
       </c>
-      <c r="E26" t="n">
-        <v>0</v>
-      </c>
-      <c r="F26" t="n">
+      <c r="E33" t="n">
+        <v>0</v>
+      </c>
+      <c r="F33" t="n">
         <v>11</v>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="G33" t="inlineStr">
         <is>
           <t>This one had my acne gone the next day, shes amazing. I highly recommend😍😩🩷
 #moots #moots?</t>
         </is>
       </c>
-      <c r="H26" t="n">
+      <c r="H33" t="n">
         <v>20.57522123893805</v>
       </c>
-      <c r="I26" t="n">
+      <c r="I33" t="n">
         <v>15.70796460176991</v>
       </c>
-      <c r="J26" t="n">
-        <v>0</v>
-      </c>
-      <c r="K26" t="n">
+      <c r="J33" t="n">
+        <v>0</v>
+      </c>
+      <c r="K33" t="n">
         <v>4.867256637168142</v>
       </c>
-      <c r="L26" t="n">
+      <c r="L33" t="n">
         <v>2.433628318584071</v>
       </c>
-      <c r="M26" t="n">
-        <v>0</v>
-      </c>
-      <c r="N26" t="inlineStr">
+      <c r="M33" t="n">
+        <v>0</v>
+      </c>
+      <c r="N33" t="inlineStr">
         <is>
           <t>2025-03-02</t>
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
+    <row r="34">
+      <c r="A34" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@kaylee.ugc_/video/7476611363901623557</t>
         </is>
       </c>
-      <c r="B27" t="n">
+      <c r="B34" t="n">
         <v>441</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C34" t="n">
         <v>98</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D34" t="n">
         <v>49</v>
       </c>
-      <c r="E27" t="n">
-        <v>0</v>
-      </c>
-      <c r="F27" t="n">
+      <c r="E34" t="n">
+        <v>0</v>
+      </c>
+      <c r="F34" t="n">
         <v>11</v>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="G34" t="inlineStr">
         <is>
           <t>I'm absolutely inlove with these products and so thankful😍🩷
 #moots #moots? #teamwork #skincare #ugc</t>
         </is>
       </c>
-      <c r="H27" t="n">
+      <c r="H34" t="n">
         <v>33.33333333333333</v>
       </c>
-      <c r="I27" t="n">
+      <c r="I34" t="n">
         <v>22.22222222222222</v>
       </c>
-      <c r="J27" t="n">
-        <v>0</v>
-      </c>
-      <c r="K27" t="n">
+      <c r="J34" t="n">
+        <v>0</v>
+      </c>
+      <c r="K34" t="n">
         <v>11.11111111111111</v>
       </c>
-      <c r="L27" t="n">
+      <c r="L34" t="n">
         <v>2.494331065759637</v>
       </c>
-      <c r="M27" t="n">
-        <v>0</v>
-      </c>
-      <c r="N27" t="inlineStr">
+      <c r="M34" t="n">
+        <v>0</v>
+      </c>
+      <c r="N34" t="inlineStr">
         <is>
           <t>2025-03-01</t>
         </is>
       </c>
     </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
+    <row r="35">
+      <c r="A35" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@kaylee.ugc_/video/7476064542548659462</t>
         </is>
       </c>
-      <c r="B28" t="n">
+      <c r="B35" t="n">
         <v>611</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C35" t="n">
         <v>92</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D35" t="n">
         <v>28</v>
       </c>
-      <c r="E28" t="n">
-        <v>0</v>
-      </c>
-      <c r="F28" t="n">
+      <c r="E35" t="n">
+        <v>0</v>
+      </c>
+      <c r="F35" t="n">
         <v>8</v>
       </c>
-      <c r="G28" t="inlineStr">
+      <c r="G35" t="inlineStr">
         <is>
           <t>This serum removes redness and repairs acne scars😍🩷 Works well with the anua niacinamide❤️ @YesStyle</t>
         </is>
       </c>
-      <c r="H28" t="n">
+      <c r="H35" t="n">
         <v>19.63993453355155</v>
       </c>
-      <c r="I28" t="n">
+      <c r="I35" t="n">
         <v>15.05728314238952</v>
       </c>
-      <c r="J28" t="n">
-        <v>0</v>
-      </c>
-      <c r="K28" t="n">
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
         <v>4.582651391162029</v>
       </c>
-      <c r="L28" t="n">
+      <c r="L35" t="n">
         <v>1.309328968903437</v>
       </c>
-      <c r="M28" t="n">
-        <v>0</v>
-      </c>
-      <c r="N28" t="inlineStr">
+      <c r="M35" t="n">
+        <v>0</v>
+      </c>
+      <c r="N35" t="inlineStr">
         <is>
           <t>2025-02-27</t>
         </is>
       </c>
     </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
+    <row r="36">
+      <c r="A36" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@kaylee.ugc_/video/7475690126509739319</t>
         </is>
       </c>
-      <c r="B29" t="n">
+      <c r="B36" t="n">
         <v>394</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C36" t="n">
         <v>60</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D36" t="n">
         <v>10</v>
       </c>
-      <c r="E29" t="n">
-        <v>0</v>
-      </c>
-      <c r="F29" t="n">
+      <c r="E36" t="n">
+        <v>0</v>
+      </c>
+      <c r="F36" t="n">
         <v>4</v>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="G36" t="inlineStr">
         <is>
           <t>I don't recommend this one😭It peels so fast and so much😭😭
 #moots #moots? #teamwork #skincare #ugc</t>
         </is>
       </c>
-      <c r="H29" t="n">
+      <c r="H36" t="n">
         <v>17.76649746192894</v>
       </c>
-      <c r="I29" t="n">
+      <c r="I36" t="n">
         <v>15.22842639593909</v>
       </c>
-      <c r="J29" t="n">
-        <v>0</v>
-      </c>
-      <c r="K29" t="n">
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
         <v>2.538071065989848</v>
       </c>
-      <c r="L29" t="n">
+      <c r="L36" t="n">
         <v>1.015228426395939</v>
       </c>
-      <c r="M29" t="n">
-        <v>0</v>
-      </c>
-      <c r="N29" t="inlineStr">
+      <c r="M36" t="n">
+        <v>0</v>
+      </c>
+      <c r="N36" t="inlineStr">
         <is>
           <t>2025-02-26</t>
         </is>
       </c>
     </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
+    <row r="37">
+      <c r="A37" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@kaylee.ugc_/video/7475321122905443589</t>
         </is>
       </c>
-      <c r="B30" t="n">
+      <c r="B37" t="n">
         <v>515</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C37" t="n">
         <v>71</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D37" t="n">
         <v>19</v>
       </c>
-      <c r="E30" t="n">
-        <v>0</v>
-      </c>
-      <c r="F30" t="n">
+      <c r="E37" t="n">
+        <v>0</v>
+      </c>
+      <c r="F37" t="n">
         <v>2</v>
       </c>
-      <c r="G30" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>My new fav sunscreen🩷😩 @YesStyle
 #moots #moots? #teamwork #skincare #ugc #viral_video</t>
         </is>
       </c>
-      <c r="H30" t="n">
+      <c r="H37" t="n">
         <v>17.47572815533981</v>
       </c>
-      <c r="I30" t="n">
+      <c r="I37" t="n">
         <v>13.78640776699029</v>
       </c>
-      <c r="J30" t="n">
-        <v>0</v>
-      </c>
-      <c r="K30" t="n">
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
         <v>3.689320388349514</v>
       </c>
-      <c r="L30" t="n">
+      <c r="L37" t="n">
         <v>0.3883495145631068</v>
       </c>
-      <c r="M30" t="n">
-        <v>0</v>
-      </c>
-      <c r="N30" t="inlineStr">
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="inlineStr">
         <is>
           <t>2025-02-25</t>
         </is>
       </c>
     </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
+    <row r="38">
+      <c r="A38" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@kaylee.ugc_/video/7474949019853278469</t>
         </is>
       </c>
-      <c r="B31" t="n">
+      <c r="B38" t="n">
         <v>420</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C38" t="n">
         <v>69</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D38" t="n">
         <v>20</v>
       </c>
-      <c r="E31" t="n">
-        <v>0</v>
-      </c>
-      <c r="F31" t="n">
+      <c r="E38" t="n">
+        <v>0</v>
+      </c>
+      <c r="F38" t="n">
         <v>4</v>
       </c>
-      <c r="G31" t="inlineStr">
+      <c r="G38" t="inlineStr">
         <is>
           <t>10/10 I recommend this cream😩😍Go buy it asap @YesStyle
 #moots #moots? #teamwork #skincare #ugc</t>
         </is>
       </c>
-      <c r="H31" t="n">
+      <c r="H38" t="n">
         <v>21.19047619047619</v>
       </c>
-      <c r="I31" t="n">
+      <c r="I38" t="n">
         <v>16.42857142857143</v>
       </c>
-      <c r="J31" t="n">
-        <v>0</v>
-      </c>
-      <c r="K31" t="n">
+      <c r="J38" t="n">
+        <v>0</v>
+      </c>
+      <c r="K38" t="n">
         <v>4.761904761904762</v>
       </c>
-      <c r="L31" t="n">
+      <c r="L38" t="n">
         <v>0.9523809523809524</v>
       </c>
-      <c r="M31" t="n">
-        <v>0</v>
-      </c>
-      <c r="N31" t="inlineStr">
+      <c r="M38" t="n">
+        <v>0</v>
+      </c>
+      <c r="N38" t="inlineStr">
         <is>
           <t>2025-02-24</t>
         </is>
       </c>
     </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
+    <row r="39">
+      <c r="A39" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@kaylee.ugc_/video/7474600385508838711</t>
         </is>
       </c>
-      <c r="B32" t="n">
+      <c r="B39" t="n">
         <v>408</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C39" t="n">
         <v>56</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D39" t="n">
         <v>16</v>
       </c>
-      <c r="E32" t="n">
-        <v>0</v>
-      </c>
-      <c r="F32" t="n">
+      <c r="E39" t="n">
+        <v>0</v>
+      </c>
+      <c r="F39" t="n">
         <v>1</v>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="G39" t="inlineStr">
         <is>
           <t>Obsessed with this face wash😍🩷@YesStyle
 #moots #moots? #teamwork #ugc #skincare #viral_video</t>
         </is>
       </c>
-      <c r="H32" t="n">
+      <c r="H39" t="n">
         <v>17.64705882352941</v>
       </c>
-      <c r="I32" t="n">
+      <c r="I39" t="n">
         <v>13.72549019607843</v>
       </c>
-      <c r="J32" t="n">
-        <v>0</v>
-      </c>
-      <c r="K32" t="n">
+      <c r="J39" t="n">
+        <v>0</v>
+      </c>
+      <c r="K39" t="n">
         <v>3.92156862745098</v>
       </c>
-      <c r="L32" t="n">
+      <c r="L39" t="n">
         <v>0.2450980392156863</v>
       </c>
-      <c r="M32" t="n">
-        <v>0</v>
-      </c>
-      <c r="N32" t="inlineStr">
+      <c r="M39" t="n">
+        <v>0</v>
+      </c>
+      <c r="N39" t="inlineStr">
         <is>
           <t>2025-02-23</t>
         </is>
       </c>
     </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
+    <row r="40">
+      <c r="A40" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@kaylee.ugc_/video/7474308866247871749</t>
         </is>
       </c>
-      <c r="B33" t="n">
+      <c r="B40" t="n">
         <v>427</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C40" t="n">
         <v>57</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D40" t="n">
         <v>7</v>
       </c>
-      <c r="E33" t="n">
-        <v>0</v>
-      </c>
-      <c r="F33" t="n">
+      <c r="E40" t="n">
+        <v>0</v>
+      </c>
+      <c r="F40" t="n">
         <v>4</v>
       </c>
-      <c r="G33" t="inlineStr">
+      <c r="G40" t="inlineStr">
         <is>
           <t>Gotta love sunscreen😩🩷 It does peel a bit, there are better ones on the market for sure.🥹
 @Stylevana
 #moots</t>
         </is>
       </c>
-      <c r="H33" t="n">
+      <c r="H40" t="n">
         <v>14.98829039812646</v>
       </c>
-      <c r="I33" t="n">
+      <c r="I40" t="n">
         <v>13.34894613583138</v>
       </c>
-      <c r="J33" t="n">
-        <v>0</v>
-      </c>
-      <c r="K33" t="n">
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
         <v>1.639344262295082</v>
       </c>
-      <c r="L33" t="n">
+      <c r="L40" t="n">
         <v>0.936768149882904</v>
       </c>
-      <c r="M33" t="n">
-        <v>0</v>
-      </c>
-      <c r="N33" t="inlineStr">
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="inlineStr">
         <is>
           <t>2025-02-23</t>
         </is>
       </c>
     </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
+    <row r="41">
+      <c r="A41" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@kaylee.ugc_/video/7473980135906004229</t>
         </is>
       </c>
-      <c r="B34" t="n">
+      <c r="B41" t="n">
         <v>411</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C41" t="n">
         <v>74</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D41" t="n">
         <v>25</v>
       </c>
-      <c r="E34" t="n">
-        <v>0</v>
-      </c>
-      <c r="F34" t="n">
+      <c r="E41" t="n">
+        <v>0</v>
+      </c>
+      <c r="F41" t="n">
         <v>6</v>
       </c>
-      <c r="G34" t="inlineStr">
+      <c r="G41" t="inlineStr">
         <is>
           <t>Another gift from bubble🤭🥹🩷 Thank you @Bubble Skincare 🩷
 #moots #moots? #teamwork</t>
         </is>
       </c>
-      <c r="H34" t="n">
+      <c r="H41" t="n">
         <v>24.08759124087591</v>
       </c>
-      <c r="I34" t="n">
+      <c r="I41" t="n">
         <v>18.00486618004866</v>
       </c>
-      <c r="J34" t="n">
-        <v>0</v>
-      </c>
-      <c r="K34" t="n">
+      <c r="J41" t="n">
+        <v>0</v>
+      </c>
+      <c r="K41" t="n">
         <v>6.082725060827251</v>
       </c>
-      <c r="L34" t="n">
+      <c r="L41" t="n">
         <v>1.45985401459854</v>
       </c>
-      <c r="M34" t="n">
-        <v>0</v>
-      </c>
-      <c r="N34" t="inlineStr">
+      <c r="M41" t="n">
+        <v>0</v>
+      </c>
+      <c r="N41" t="inlineStr">
         <is>
           <t>2025-02-22</t>
         </is>
       </c>
     </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
+    <row r="42">
+      <c r="A42" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@kaylee.ugc_/video/7473679308364598533</t>
         </is>
       </c>
-      <c r="B35" t="n">
+      <c r="B42" t="n">
         <v>604</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C42" t="n">
         <v>116</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D42" t="n">
         <v>50</v>
       </c>
-      <c r="E35" t="n">
-        <v>0</v>
-      </c>
-      <c r="F35" t="n">
+      <c r="E42" t="n">
+        <v>0</v>
+      </c>
+      <c r="F42" t="n">
         <v>14</v>
       </c>
-      <c r="G35" t="inlineStr">
+      <c r="G42" t="inlineStr">
         <is>
           <t>I love unboxing videos🩷 @YesStyle products😍😩
 #moots #moots? #teamwork #ugc #fyp #skincare</t>
         </is>
       </c>
-      <c r="H35" t="n">
+      <c r="H42" t="n">
         <v>27.48344370860927</v>
       </c>
-      <c r="I35" t="n">
+      <c r="I42" t="n">
         <v>19.20529801324503</v>
       </c>
-      <c r="J35" t="n">
-        <v>0</v>
-      </c>
-      <c r="K35" t="n">
+      <c r="J42" t="n">
+        <v>0</v>
+      </c>
+      <c r="K42" t="n">
         <v>8.278145695364239</v>
       </c>
-      <c r="L35" t="n">
+      <c r="L42" t="n">
         <v>2.317880794701987</v>
       </c>
-      <c r="M35" t="n">
-        <v>0</v>
-      </c>
-      <c r="N35" t="inlineStr">
+      <c r="M42" t="n">
+        <v>0</v>
+      </c>
+      <c r="N42" t="inlineStr">
         <is>
           <t>2025-02-21</t>
         </is>
       </c>
     </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
+    <row r="43">
+      <c r="A43" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@kaylee.ugc_/video/7473312253547138310</t>
         </is>
       </c>
-      <c r="B36" t="n">
+      <c r="B43" t="n">
         <v>468</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C43" t="n">
         <v>59</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D43" t="n">
         <v>6</v>
       </c>
-      <c r="E36" t="n">
-        <v>0</v>
-      </c>
-      <c r="F36" t="n">
+      <c r="E43" t="n">
+        <v>0</v>
+      </c>
+      <c r="F43" t="n">
         <v>3</v>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="G43" t="inlineStr">
         <is>
           <t>Sephora haul😩🥹😍 My sister gave me her birthday sample😍 @sephoracanada
 #moots #moots? #teamwork #ugc</t>
         </is>
       </c>
-      <c r="H36" t="n">
+      <c r="H43" t="n">
         <v>13.88888888888889</v>
       </c>
-      <c r="I36" t="n">
+      <c r="I43" t="n">
         <v>12.60683760683761</v>
       </c>
-      <c r="J36" t="n">
-        <v>0</v>
-      </c>
-      <c r="K36" t="n">
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
         <v>1.282051282051282</v>
       </c>
-      <c r="L36" t="n">
+      <c r="L43" t="n">
         <v>0.641025641025641</v>
       </c>
-      <c r="M36" t="n">
-        <v>0</v>
-      </c>
-      <c r="N36" t="inlineStr">
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="inlineStr">
         <is>
           <t>2025-02-20</t>
         </is>
       </c>
     </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
+    <row r="44">
+      <c r="A44" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@kaylee.ugc_/video/7472919115133472005</t>
         </is>
       </c>
-      <c r="B37" t="n">
+      <c r="B44" t="n">
         <v>341</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C44" t="n">
         <v>72</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D44" t="n">
         <v>15</v>
       </c>
-      <c r="E37" t="n">
-        <v>0</v>
-      </c>
-      <c r="F37" t="n">
+      <c r="E44" t="n">
+        <v>0</v>
+      </c>
+      <c r="F44" t="n">
         <v>4</v>
       </c>
-      <c r="G37" t="inlineStr">
+      <c r="G44" t="inlineStr">
         <is>
           <t>Sephora haul😩🥹😍 My sister gave me her birthday sample😍 @sephoracanada
 #moots #moots? #teamwork #ugc</t>
         </is>
       </c>
-      <c r="H37" t="n">
+      <c r="H44" t="n">
         <v>25.51319648093842</v>
       </c>
-      <c r="I37" t="n">
+      <c r="I44" t="n">
         <v>21.11436950146627</v>
       </c>
-      <c r="J37" t="n">
-        <v>0</v>
-      </c>
-      <c r="K37" t="n">
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
         <v>4.398826979472141</v>
       </c>
-      <c r="L37" t="n">
+      <c r="L44" t="n">
         <v>1.173020527859238</v>
       </c>
-      <c r="M37" t="n">
-        <v>0</v>
-      </c>
-      <c r="N37" t="inlineStr">
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="inlineStr">
         <is>
           <t>2025-02-19</t>
         </is>
       </c>
     </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
+    <row r="45">
+      <c r="A45" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@kaylee.ugc_/video/7472598050121305399</t>
         </is>
       </c>
-      <c r="B38" t="n">
+      <c r="B45" t="n">
         <v>711</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C45" t="n">
         <v>111</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D45" t="n">
         <v>18</v>
       </c>
-      <c r="E38" t="n">
-        <v>0</v>
-      </c>
-      <c r="F38" t="n">
+      <c r="E45" t="n">
+        <v>0</v>
+      </c>
+      <c r="F45" t="n">
         <v>3</v>
       </c>
-      <c r="G38" t="inlineStr">
+      <c r="G45" t="inlineStr">
         <is>
           <t>Bubble is finally at shoppers! Go buy some right now!😍🥹😩 @Shoppers Drug Mart @shoppersbeauty</t>
         </is>
       </c>
-      <c r="H38" t="n">
+      <c r="H45" t="n">
         <v>18.14345991561181</v>
       </c>
-      <c r="I38" t="n">
+      <c r="I45" t="n">
         <v>15.61181434599156</v>
       </c>
-      <c r="J38" t="n">
-        <v>0</v>
-      </c>
-      <c r="K38" t="n">
+      <c r="J45" t="n">
+        <v>0</v>
+      </c>
+      <c r="K45" t="n">
         <v>2.531645569620253</v>
       </c>
-      <c r="L38" t="n">
+      <c r="L45" t="n">
         <v>0.4219409282700421</v>
       </c>
-      <c r="M38" t="n">
-        <v>0</v>
-      </c>
-      <c r="N38" t="inlineStr">
+      <c r="M45" t="n">
+        <v>0</v>
+      </c>
+      <c r="N45" t="inlineStr">
         <is>
           <t>2025-02-18</t>
         </is>
       </c>
     </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
+    <row r="46">
+      <c r="A46" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@kaylee.ugc_/video/7472024148005440823</t>
         </is>
       </c>
-      <c r="B39" t="n">
+      <c r="B46" t="n">
         <v>495</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C46" t="n">
         <v>109</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D46" t="n">
         <v>19</v>
       </c>
-      <c r="E39" t="n">
-        <v>0</v>
-      </c>
-      <c r="F39" t="n">
+      <c r="E46" t="n">
+        <v>0</v>
+      </c>
+      <c r="F46" t="n">
         <v>7</v>
       </c>
-      <c r="G39" t="inlineStr">
+      <c r="G46" t="inlineStr">
         <is>
           <t>Bubble is finally at shoppers! Go buy some right now!😍🥹😩 @Shoppers Drug Mart @shoppersbeauty</t>
         </is>
       </c>
-      <c r="H39" t="n">
+      <c r="H46" t="n">
         <v>25.85858585858586</v>
       </c>
-      <c r="I39" t="n">
+      <c r="I46" t="n">
         <v>22.02020202020202</v>
       </c>
-      <c r="J39" t="n">
-        <v>0</v>
-      </c>
-      <c r="K39" t="n">
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
         <v>3.838383838383838</v>
       </c>
-      <c r="L39" t="n">
+      <c r="L46" t="n">
         <v>1.414141414141414</v>
       </c>
-      <c r="M39" t="n">
-        <v>0</v>
-      </c>
-      <c r="N39" t="inlineStr">
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="inlineStr">
         <is>
           <t>2025-02-16</t>
         </is>
       </c>
     </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
+    <row r="47">
+      <c r="A47" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@kaylee.ugc_/video/7471768338440490245</t>
         </is>
       </c>
-      <c r="B40" t="n">
+      <c r="B47" t="n">
         <v>526</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C47" t="n">
         <v>102</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D47" t="n">
         <v>52</v>
       </c>
-      <c r="E40" t="n">
-        <v>0</v>
-      </c>
-      <c r="F40" t="n">
+      <c r="E47" t="n">
+        <v>0</v>
+      </c>
+      <c r="F47" t="n">
         <v>7</v>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="G47" t="inlineStr">
         <is>
           <t>Yesstyle haul😩🩷
 #moots #moots? #teamwork #ugc #fyp #viral_video #skincare #koreanskincare</t>
         </is>
       </c>
-      <c r="H40" t="n">
+      <c r="H47" t="n">
         <v>29.27756653992396</v>
       </c>
-      <c r="I40" t="n">
+      <c r="I47" t="n">
         <v>19.39163498098859</v>
       </c>
-      <c r="J40" t="n">
-        <v>0</v>
-      </c>
-      <c r="K40" t="n">
+      <c r="J47" t="n">
+        <v>0</v>
+      </c>
+      <c r="K47" t="n">
         <v>9.885931558935361</v>
       </c>
-      <c r="L40" t="n">
+      <c r="L47" t="n">
         <v>1.330798479087452</v>
       </c>
-      <c r="M40" t="n">
-        <v>0</v>
-      </c>
-      <c r="N40" t="inlineStr">
+      <c r="M47" t="n">
+        <v>0</v>
+      </c>
+      <c r="N47" t="inlineStr">
         <is>
           <t>2025-02-16</t>
         </is>
       </c>
     </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
+    <row r="48">
+      <c r="A48" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@kaylee.ugc_/video/7471411318763834630</t>
         </is>
       </c>
-      <c r="B41" t="n">
+      <c r="B48" t="n">
         <v>339</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C48" t="n">
         <v>102</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D48" t="n">
         <v>52</v>
       </c>
-      <c r="E41" t="n">
-        <v>0</v>
-      </c>
-      <c r="F41" t="n">
+      <c r="E48" t="n">
+        <v>0</v>
+      </c>
+      <c r="F48" t="n">
         <v>7</v>
       </c>
-      <c r="G41" t="inlineStr">
+      <c r="G48" t="inlineStr">
         <is>
           <t>Yesstyle haul😩🩷
 #moots #moots? #teamwork #ugc #fyp #viral_video #skincare #koreanskincare</t>
         </is>
       </c>
-      <c r="H41" t="n">
+      <c r="H48" t="n">
         <v>45.42772861356932</v>
       </c>
-      <c r="I41" t="n">
+      <c r="I48" t="n">
         <v>30.08849557522124</v>
       </c>
-      <c r="J41" t="n">
-        <v>0</v>
-      </c>
-      <c r="K41" t="n">
+      <c r="J48" t="n">
+        <v>0</v>
+      </c>
+      <c r="K48" t="n">
         <v>15.33923303834808</v>
       </c>
-      <c r="L41" t="n">
+      <c r="L48" t="n">
         <v>2.064896755162242</v>
       </c>
-      <c r="M41" t="n">
-        <v>0</v>
-      </c>
-      <c r="N41" t="inlineStr">
+      <c r="M48" t="n">
+        <v>0</v>
+      </c>
+      <c r="N48" t="inlineStr">
         <is>
           <t>2025-02-16</t>
         </is>
       </c>
     </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
+    <row r="49">
+      <c r="A49" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@kaylee.ugc_/video/7471015031044558135</t>
         </is>
       </c>
-      <c r="B42" t="n">
+      <c r="B49" t="n">
         <v>438</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C49" t="n">
         <v>47</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D49" t="n">
         <v>10</v>
       </c>
-      <c r="E42" t="n">
-        <v>0</v>
-      </c>
-      <c r="F42" t="n">
+      <c r="E49" t="n">
+        <v>0</v>
+      </c>
+      <c r="F49" t="n">
         <v>2</v>
       </c>
-      <c r="G42" t="inlineStr">
+      <c r="G49" t="inlineStr">
         <is>
           <t>Ending the final day of my shoppers drug mart advent calendar with a full size highlight😍😩🩷 @Shoppers Drug Mart</t>
         </is>
       </c>
-      <c r="H42" t="n">
+      <c r="H49" t="n">
         <v>13.01369863013699</v>
       </c>
-      <c r="I42" t="n">
+      <c r="I49" t="n">
         <v>10.73059360730594</v>
       </c>
-      <c r="J42" t="n">
-        <v>0</v>
-      </c>
-      <c r="K42" t="n">
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
         <v>2.28310502283105</v>
       </c>
-      <c r="L42" t="n">
+      <c r="L49" t="n">
         <v>0.45662100456621</v>
       </c>
-      <c r="M42" t="n">
-        <v>0</v>
-      </c>
-      <c r="N42" t="inlineStr">
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="inlineStr">
         <is>
           <t>2025-02-15</t>
         </is>
       </c>
     </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
+    <row r="50">
+      <c r="A50" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@kaylee.ugc_/video/7470622337566641414</t>
         </is>
       </c>
-      <c r="B43" t="n">
+      <c r="B50" t="n">
         <v>308</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C50" t="n">
         <v>109</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D50" t="n">
         <v>35</v>
       </c>
-      <c r="E43" t="n">
-        <v>0</v>
-      </c>
-      <c r="F43" t="n">
+      <c r="E50" t="n">
+        <v>0</v>
+      </c>
+      <c r="F50" t="n">
         <v>8</v>
       </c>
-      <c r="G43" t="inlineStr">
+      <c r="G50" t="inlineStr">
         <is>
           <t>Shes so cute😍😩🩵@Bubble Skincare @Bubble Insiders #bubbleambassador #moots #moots? #teamwork</t>
         </is>
       </c>
-      <c r="H43" t="n">
+      <c r="H50" t="n">
         <v>46.75324675324675</v>
       </c>
-      <c r="I43" t="n">
+      <c r="I50" t="n">
         <v>35.38961038961039</v>
       </c>
-      <c r="J43" t="n">
-        <v>0</v>
-      </c>
-      <c r="K43" t="n">
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
         <v>11.36363636363636</v>
       </c>
-      <c r="L43" t="n">
+      <c r="L50" t="n">
         <v>2.597402597402597</v>
       </c>
-      <c r="M43" t="n">
-        <v>0</v>
-      </c>
-      <c r="N43" t="inlineStr">
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="inlineStr">
         <is>
           <t>2025-02-14</t>
         </is>
       </c>
     </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
+    <row r="51">
+      <c r="A51" s="1" t="inlineStr">
         <is>
           <t>https://www.tiktok.com/@kaylee.ugc_/video/7470345504203836678</t>
         </is>
       </c>
-      <c r="B44" t="n">
+      <c r="B51" t="n">
         <v>438</v>
       </c>
-      <c r="C44" t="n">
+      <c r="C51" t="n">
         <v>66</v>
       </c>
-      <c r="D44" t="n">
+      <c r="D51" t="n">
         <v>14</v>
       </c>
-      <c r="E44" t="n">
-        <v>0</v>
-      </c>
-      <c r="F44" t="n">
+      <c r="E51" t="n">
+        <v>0</v>
+      </c>
+      <c r="F51" t="n">
         <v>6</v>
       </c>
-      <c r="G44" t="inlineStr">
+      <c r="G51" t="inlineStr">
         <is>
           <t>Obsessed with the shine in this one😍😩 @Gisou
 #moots #moots? #teamwork #ugc #ugccreator #viral_video #fyp</t>
         </is>
       </c>
-      <c r="H44" t="n">
+      <c r="H51" t="n">
         <v>18.2648401826484</v>
       </c>
-      <c r="I44" t="n">
+      <c r="I51" t="n">
         <v>15.06849315068493</v>
       </c>
-      <c r="J44" t="n">
-        <v>0</v>
-      </c>
-      <c r="K44" t="n">
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
         <v>3.19634703196347</v>
       </c>
-      <c r="L44" t="n">
+      <c r="L51" t="n">
         <v>1.36986301369863</v>
       </c>
-      <c r="M44" t="n">
-        <v>0</v>
-      </c>
-      <c r="N44" t="inlineStr">
+      <c r="M51" t="n">
+        <v>0</v>
+      </c>
+      <c r="N51" t="inlineStr">
         <is>
           <t>2025-02-13</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@kaylee.ugc_/video/7469831865910742278</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>417</v>
-      </c>
-      <c r="C45" t="n">
-        <v>72</v>
-      </c>
-      <c r="D45" t="n">
-        <v>23</v>
-      </c>
-      <c r="E45" t="n">
-        <v>0</v>
-      </c>
-      <c r="F45" t="n">
-        <v>8</v>
-      </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>Absolutely obsessed with these shades😩😍🩷 Thank you so much @Stylevana @fwee
-Use code: INF105TLAMY for $$$ off!</t>
-        </is>
-      </c>
-      <c r="H45" t="n">
-        <v>22.78177458033573</v>
-      </c>
-      <c r="I45" t="n">
-        <v>17.26618705035971</v>
-      </c>
-      <c r="J45" t="n">
-        <v>0</v>
-      </c>
-      <c r="K45" t="n">
-        <v>5.515587529976019</v>
-      </c>
-      <c r="L45" t="n">
-        <v>1.918465227817746</v>
-      </c>
-      <c r="M45" t="n">
-        <v>0</v>
-      </c>
-      <c r="N45" t="inlineStr">
-        <is>
-          <t>2025-02-12</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@kaylee.ugc_/video/7469461100946361606</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>455</v>
-      </c>
-      <c r="C46" t="n">
-        <v>100</v>
-      </c>
-      <c r="D46" t="n">
-        <v>23</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0</v>
-      </c>
-      <c r="F46" t="n">
-        <v>7</v>
-      </c>
-      <c r="G46" t="inlineStr">
-        <is>
-          <t>Sephora haul😩😍 So many good minis!! This came in the lunar year #1 for orders above 100$😍</t>
-        </is>
-      </c>
-      <c r="H46" t="n">
-        <v>27.03296703296703</v>
-      </c>
-      <c r="I46" t="n">
-        <v>21.97802197802198</v>
-      </c>
-      <c r="J46" t="n">
-        <v>0</v>
-      </c>
-      <c r="K46" t="n">
-        <v>5.054945054945055</v>
-      </c>
-      <c r="L46" t="n">
-        <v>1.538461538461539</v>
-      </c>
-      <c r="M46" t="n">
-        <v>0</v>
-      </c>
-      <c r="N46" t="inlineStr">
-        <is>
-          <t>2025-02-11</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@kaylee.ugc_/video/7469118755877031174</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>425</v>
-      </c>
-      <c r="C47" t="n">
-        <v>82</v>
-      </c>
-      <c r="D47" t="n">
-        <v>37</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0</v>
-      </c>
-      <c r="F47" t="n">
-        <v>4</v>
-      </c>
-      <c r="G47" t="inlineStr">
-        <is>
-          <t>Sephora haul😩😍 Got the lunar year bag #1 for free🥹😩 @sephoracanada
-#moots #moots? #teamwork #ugc</t>
-        </is>
-      </c>
-      <c r="H47" t="n">
-        <v>28</v>
-      </c>
-      <c r="I47" t="n">
-        <v>19.29411764705882</v>
-      </c>
-      <c r="J47" t="n">
-        <v>0</v>
-      </c>
-      <c r="K47" t="n">
-        <v>8.705882352941176</v>
-      </c>
-      <c r="L47" t="n">
-        <v>0.9411764705882352</v>
-      </c>
-      <c r="M47" t="n">
-        <v>0</v>
-      </c>
-      <c r="N47" t="inlineStr">
-        <is>
-          <t>2025-02-10</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@kaylee.ugc_/video/7468804196708502790</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>516</v>
-      </c>
-      <c r="C48" t="n">
-        <v>49</v>
-      </c>
-      <c r="D48" t="n">
-        <v>12</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0</v>
-      </c>
-      <c r="F48" t="n">
-        <v>3</v>
-      </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>Day 24 of my shoppers drug mart advent calendar😍🩷A fancy mini perfume🥹😩 @Shoppers Drug Mart</t>
-        </is>
-      </c>
-      <c r="H48" t="n">
-        <v>11.82170542635659</v>
-      </c>
-      <c r="I48" t="n">
-        <v>9.496124031007753</v>
-      </c>
-      <c r="J48" t="n">
-        <v>0</v>
-      </c>
-      <c r="K48" t="n">
-        <v>2.325581395348837</v>
-      </c>
-      <c r="L48" t="n">
-        <v>0.5813953488372093</v>
-      </c>
-      <c r="M48" t="n">
-        <v>0</v>
-      </c>
-      <c r="N48" t="inlineStr">
-        <is>
-          <t>2025-02-09</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@kaylee.ugc_/video/7468332886458977541</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>405</v>
-      </c>
-      <c r="C49" t="n">
-        <v>101</v>
-      </c>
-      <c r="D49" t="n">
-        <v>30</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0</v>
-      </c>
-      <c r="F49" t="n">
-        <v>17</v>
-      </c>
-      <c r="G49" t="inlineStr">
-        <is>
-          <t>April skin cleanser and toner😩😍
-The cleanser smells so good!🩷 Thank you so much @Stylevana</t>
-        </is>
-      </c>
-      <c r="H49" t="n">
-        <v>32.34567901234568</v>
-      </c>
-      <c r="I49" t="n">
-        <v>24.93827160493827</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="n">
-        <v>7.407407407407407</v>
-      </c>
-      <c r="L49" t="n">
-        <v>4.197530864197531</v>
-      </c>
-      <c r="M49" t="n">
-        <v>0</v>
-      </c>
-      <c r="N49" t="inlineStr">
-        <is>
-          <t>2025-02-08</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>https://www.tiktok.com/@kaylee.ugc_/video/7468035236358622470</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>481</v>
-      </c>
-      <c r="C50" t="n">
-        <v>105</v>
-      </c>
-      <c r="D50" t="n">
-        <v>25</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0</v>
-      </c>
-      <c r="F50" t="n">
-        <v>10</v>
-      </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>Gisou🩷😍 @Gisou UGC example🍒
-#moots #moots? #teamwork #ugc #ugccreator #viral_video #fyp</t>
-        </is>
-      </c>
-      <c r="H50" t="n">
-        <v>27.02702702702703</v>
-      </c>
-      <c r="I50" t="n">
-        <v>21.82952182952183</v>
-      </c>
-      <c r="J50" t="n">
-        <v>0</v>
-      </c>
-      <c r="K50" t="n">
-        <v>5.197505197505198</v>
-      </c>
-      <c r="L50" t="n">
-        <v>2.079002079002079</v>
-      </c>
-      <c r="M50" t="n">
-        <v>0</v>
-      </c>
-      <c r="N50" t="inlineStr">
-        <is>
-          <t>2025-02-07</t>
         </is>
       </c>
     </row>
